--- a/data/swissTournament.xlsx
+++ b/data/swissTournament.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Round 100" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Round 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Round 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Round 3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -665,17 +667,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ian Nepomniachtchi (0.0)</t>
+          <t>Ian Nepomniachtchi (1.0)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0 : 1</t>
+          <t>1 : 0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fabiano Caruana (1.0)</t>
+          <t>Fabiano Caruana (0.0)</t>
         </is>
       </c>
     </row>
@@ -705,17 +707,269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alireza Firouzja (0.5)</t>
+          <t>Alireza Firouzja (1.0)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Richard Rapport (0.0)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ding Liren (1.5)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1/2 : 1/2</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ian Nepomniachtchi (1.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Levon Aronian (1.5)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bogdan-Daniel Deac (1.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Magnus Carlsen (1.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alireza Firouzja (1.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wesley So (0.5)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Richard Rapport (0.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fabiano Caruana (1.0)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Richard Rapport (0.5)</t>
+          <t>Hikaru Nakamura (0.0)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Levon Aronian (2.0)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bogdan-Daniel Deac (2.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ian Nepomniachtchi (2.0)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ding Liren (2.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fabiano Caruana (1.5)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Magnus Carlsen (1.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wesley So (1.0)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alireza Firouzja (1.5)</t>
         </is>
       </c>
     </row>

--- a/data/swissTournament.xlsx
+++ b/data/swissTournament.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Round 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Round 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Round 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Round 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Round 5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -462,10 +464,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -583,6 +585,66 @@
       </c>
       <c r="B11" t="n">
         <v>2777.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>David Howell</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2712.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hans Moke Niemann</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Vincent Keymer</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2697.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Alexander Grischuk</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2756.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Levy Rosman</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2342.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nihal Sarin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2609.6</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,17 +689,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ding Liren (1.0)</t>
+          <t>Wesley So (0.5)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 : 0</t>
+          <t>1/2 : 1/2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Magnus Carlsen (0.0)</t>
+          <t>Magnus Carlsen (0.5)</t>
         </is>
       </c>
     </row>
@@ -647,17 +709,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bogdan-Daniel Deac (1.0)</t>
+          <t>Alexander Grischuk (0.5)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1 : 0</t>
+          <t>1/2 : 1/2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wesley So (0.0)</t>
+          <t>Bogdan-Daniel Deac (0.5)</t>
         </is>
       </c>
     </row>
@@ -667,7 +729,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ian Nepomniachtchi (1.0)</t>
+          <t>Fabiano Caruana (1.0)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -677,7 +739,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fabiano Caruana (0.0)</t>
+          <t>Alireza Firouzja (0.0)</t>
         </is>
       </c>
     </row>
@@ -687,17 +749,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Levon Aronian (1.0)</t>
+          <t>Ian Nepomniachtchi (0.5)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1 : 0</t>
+          <t>1/2 : 1/2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hikaru Nakamura (0.0)</t>
+          <t>Levon Aronian (0.5)</t>
         </is>
       </c>
     </row>
@@ -707,7 +769,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alireza Firouzja (1.0)</t>
+          <t>Richard Rapport (1.0)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -717,7 +779,67 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Richard Rapport (0.0)</t>
+          <t>Vincent Keymer (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hans Moke Niemann (0.5)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ding Liren (0.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hikaru Nakamura (0.5)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>David Howell (0.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Levy Rosman (0.5)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Nihal Sarin (0.5)</t>
         </is>
       </c>
     </row>
@@ -732,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +885,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ding Liren (1.5)</t>
+          <t>Richard Rapport (1.5)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -773,7 +895,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ian Nepomniachtchi (1.5)</t>
+          <t>Fabiano Caruana (1.5)</t>
         </is>
       </c>
     </row>
@@ -783,17 +905,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Levon Aronian (1.5)</t>
+          <t>Magnus Carlsen (0.5)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1/2 : 1/2</t>
+          <t>0 : 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bogdan-Daniel Deac (1.5)</t>
+          <t>Hikaru Nakamura (1.5)</t>
         </is>
       </c>
     </row>
@@ -803,7 +925,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Magnus Carlsen (1.0)</t>
+          <t>Ding Liren (1.5)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -813,7 +935,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Alireza Firouzja (1.0)</t>
+          <t>Alexander Grischuk (0.5)</t>
         </is>
       </c>
     </row>
@@ -823,17 +945,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wesley So (0.5)</t>
+          <t>Levon Aronian (0.5)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1/2 : 1/2</t>
+          <t>0 : 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Richard Rapport (0.5)</t>
+          <t>Hans Moke Niemann (1.5)</t>
         </is>
       </c>
     </row>
@@ -843,17 +965,77 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fabiano Caruana (1.0)</t>
+          <t>Wesley So (1.0)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>David Howell (1.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ian Nepomniachtchi (0.5)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nihal Sarin (1.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bogdan-Daniel Deac (1.5)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1 : 0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Hikaru Nakamura (0.0)</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Levy Rosman (0.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vincent Keymer (1.0)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alireza Firouzja (0.0)</t>
         </is>
       </c>
     </row>
@@ -868,7 +1050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,7 +1081,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Levon Aronian (2.0)</t>
+          <t>Ding Liren (2.0)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -909,7 +1091,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bogdan-Daniel Deac (2.0)</t>
+          <t>Richard Rapport (2.0)</t>
         </is>
       </c>
     </row>
@@ -919,17 +1101,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ian Nepomniachtchi (2.0)</t>
+          <t>Fabiano Caruana (1.5)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1/2 : 1/2</t>
+          <t>0 : 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ding Liren (2.0)</t>
+          <t>Hikaru Nakamura (2.5)</t>
         </is>
       </c>
     </row>
@@ -939,17 +1121,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fabiano Caruana (1.5)</t>
+          <t>Bogdan-Daniel Deac (1.5)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1/2 : 1/2</t>
+          <t>0 : 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Magnus Carlsen (1.5)</t>
+          <t>Hans Moke Niemann (2.5)</t>
         </is>
       </c>
     </row>
@@ -964,12 +1146,484 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nihal Sarin (2.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David Howell (2.0)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vincent Keymer (1.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Magnus Carlsen (1.5)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ian Nepomniachtchi (0.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Levon Aronian (0.5)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alexander Grischuk (1.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alireza Firouzja (1.0)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Levy Rosman (0.5)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hans Moke Niemann (3.5)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hikaru Nakamura (2.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ding Liren (2.0)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nihal Sarin (3.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Richard Rapport (3.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>David Howell (2.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Magnus Carlsen (1.5)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bogdan-Daniel Deac (2.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexander Grischuk (1.5)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fabiano Caruana (2.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alireza Firouzja (1.5)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>1/2 : 1/2</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wesley So (1.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Levon Aronian (0.5)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Vincent Keymer (2.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ian Nepomniachtchi (1.5)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Levy Rosman (0.5)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nihal Sarin (4.0)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hans Moke Niemann (4.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Richard Rapport (3.0)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hikaru Nakamura (3.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bogdan-Daniel Deac (3.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fabiano Caruana (3.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David Howell (3.0)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alireza Firouzja (1.5)</t>
+          <t>Ding Liren (2.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Magnus Carlsen (1.5)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vincent Keymer (3.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wesley So (2.5)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1 : 0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alexander Grischuk (1.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alireza Firouzja (2.0)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1/2 : 1/2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ian Nepomniachtchi (2.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Levy Rosman (0.5)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0 : 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Levon Aronian (1.5)</t>
         </is>
       </c>
     </row>
